--- a/PackingListScript/Got from new DIMS/PackingList903241.xlsx
+++ b/PackingListScript/Got from new DIMS/PackingList903241.xlsx
@@ -399,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -434,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
         <v>140137</v>
       </c>
       <c r="B30" s="16">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C30" s="17">
         <v>150</v>
@@ -1581,7 +1581,7 @@
         <v>672</v>
       </c>
       <c r="C32" s="17">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D32" s="18">
         <v>538</v>
@@ -1691,11 +1691,11 @@
       </c>
       <c r="B38" s="9">
         <f>SUM(B12:B37)</f>
-        <v>27256</v>
+        <v>27266</v>
       </c>
       <c r="C38" s="9">
         <f>SUM(C12:C37)</f>
-        <v>5084</v>
+        <v>5066</v>
       </c>
       <c r="D38" s="9">
         <f>SUM(D12:D37)</f>
